--- a/biology/Biochimie/Lipoprotéine_de_Braun/Lipoprotéine_de_Braun.xlsx
+++ b/biology/Biochimie/Lipoprotéine_de_Braun/Lipoprotéine_de_Braun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lipoprot%C3%A9ine_de_Braun</t>
+          <t>Lipoprotéine_de_Braun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lipoprotéines de Braun sont des composantes spécifiques de l'enveloppe de la plupart des bactéries Gram négatif. Leur poids moléculaire est de 7200 Da et on en dénombre en moyenne 700 000 par cellule. Elles ont un rôle dans la stabilisation de la paroi et de la membrane externe.
 Insérées par leur partie lipidique dans la couche de phospholipide de la membrane externe, l'autre partie sera liée de façon covalente aux peptidoglycanes.
